--- a/Project_8 Data_processing/population.xlsx
+++ b/Project_8 Data_processing/population.xlsx
@@ -17,13 +17,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00008c1e"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00fc1303"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +54,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -122,6 +132,19 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Population_Data" displayName="Population_Data" ref="A1:D236" headerRowCount="1">
+  <autoFilter ref="A1:D236"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="N"/>
+    <tableColumn id="2" name="Country"/>
+    <tableColumn id="3" name="Population"/>
+    <tableColumn id="4" name="Percentage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showRowStripes="1" showColumnStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,7 +431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -452,9 +475,9 @@
           <t>China</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1,439,323,776</t>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>1439323776</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -472,9 +495,9 @@
           <t>India</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1,380,004,385</t>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>1380004385</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -492,9 +515,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>331,002,651</t>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>331002651</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -512,9 +535,9 @@
           <t>Indonesia</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>273,523,615</t>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>273523615</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -532,9 +555,9 @@
           <t>Pakistan</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>220,892,340</t>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>220892340</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -552,9 +575,9 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>212,559,417</t>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>212559417</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -572,9 +595,9 @@
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>206,139,589</t>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>206139589</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -592,9 +615,9 @@
           <t>Bangladesh</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>164,689,383</t>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>164689383</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -612,9 +635,9 @@
           <t>Russia</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>145,934,462</t>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>145934462</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,9 +655,9 @@
           <t>Mexico</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>128,932,753</t>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>128932753</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -652,9 +675,9 @@
           <t>Japan</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>126,476,461</t>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>126476461</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -672,9 +695,9 @@
           <t>Ethiopia</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>114,963,588</t>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>114963588</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -692,9 +715,9 @@
           <t>Philippines</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>109,581,078</t>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>109581078</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -712,9 +735,9 @@
           <t>Egypt</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>102,334,404</t>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>102334404</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -732,9 +755,9 @@
           <t>Vietnam</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>97,338,579</t>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>97338579</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -752,9 +775,9 @@
           <t>DR Congo</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>89,561,403</t>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>89561403</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -772,9 +795,9 @@
           <t>Turkey</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>84,339,067</t>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>84339067</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -792,9 +815,9 @@
           <t>Iran</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>83,992,949</t>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>83992949</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -812,9 +835,9 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>83,783,942</t>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>83783942</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -832,9 +855,9 @@
           <t>Thailand</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>69,799,978</t>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>69799978</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -852,9 +875,9 @@
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>67,886,011</t>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>67886011</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -872,9 +895,9 @@
           <t>France</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>65,273,511</t>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>65273511</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -892,9 +915,9 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>60,461,826</t>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>60461826</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -912,9 +935,9 @@
           <t>Tanzania</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>59,734,218</t>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>59734218</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -932,9 +955,9 @@
           <t>South Africa</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>59,308,690</t>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>59308690</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -952,9 +975,9 @@
           <t>Myanmar</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>54,409,800</t>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>54409800</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -972,9 +995,9 @@
           <t>Kenya</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>53,771,296</t>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>53771296</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -992,9 +1015,9 @@
           <t>South Korea</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>51,269,185</t>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>51269185</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1012,9 +1035,9 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>50,882,891</t>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>50882891</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1032,9 +1055,9 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>46,754,778</t>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>46754778</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1052,9 +1075,9 @@
           <t>Uganda</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>45,741,007</t>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>45741007</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1072,9 +1095,9 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>45,195,774</t>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>45195774</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1092,9 +1115,9 @@
           <t>Algeria</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>43,851,044</t>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>43851044</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1112,9 +1135,9 @@
           <t>Sudan</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>43,849,260</t>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>43849260</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1132,9 +1155,9 @@
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>43,733,762</t>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>43733762</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1152,9 +1175,9 @@
           <t>Iraq</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>40,222,493</t>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>40222493</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1172,9 +1195,9 @@
           <t>Afghanistan</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>38,928,346</t>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>38928346</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1192,9 +1215,9 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>37,846,611</t>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>37846611</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1212,9 +1235,9 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>37,742,154</t>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>37742154</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1232,9 +1255,9 @@
           <t>Morocco</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>36,910,560</t>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>36910560</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1252,9 +1275,9 @@
           <t>Saudi Arabia</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>34,813,871</t>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>34813871</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1272,9 +1295,9 @@
           <t>Uzbekistan</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>33,469,203</t>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>33469203</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1292,9 +1315,9 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>32,971,854</t>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>32971854</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1312,9 +1335,9 @@
           <t>Angola</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>32,866,272</t>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>32866272</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1332,9 +1355,9 @@
           <t>Malaysia</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>32,365,999</t>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>32365999</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1352,9 +1375,9 @@
           <t>Mozambique</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>31,255,435</t>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>31255435</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1372,9 +1395,9 @@
           <t>Ghana</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>31,072,940</t>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>31072940</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1392,9 +1415,9 @@
           <t>Yemen</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>29,825,964</t>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>29825964</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1412,9 +1435,9 @@
           <t>Nepal</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>29,136,808</t>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>29136808</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1432,9 +1455,9 @@
           <t>Venezuela</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>28,435,940</t>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>28435940</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1452,9 +1475,9 @@
           <t>Madagascar</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>27,691,018</t>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>27691018</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1472,9 +1495,9 @@
           <t>Cameroon</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>26,545,863</t>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>26545863</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1492,9 +1515,9 @@
           <t>Côte d'Ivoire</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>26,378,274</t>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>26378274</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1512,9 +1535,9 @@
           <t>North Korea</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>25,778,816</t>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>25778816</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1532,9 +1555,9 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>25,499,884</t>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>25499884</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1552,9 +1575,9 @@
           <t>Niger</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>24,206,644</t>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>24206644</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1572,9 +1595,9 @@
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>23,816,775</t>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>23816775</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1592,9 +1615,9 @@
           <t>Sri Lanka</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>21,413,249</t>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>21413249</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1612,9 +1635,9 @@
           <t>Burkina Faso</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>20,903,273</t>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>20903273</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1632,9 +1655,9 @@
           <t>Mali</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>20,250,833</t>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>20250833</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1652,9 +1675,9 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>19,237,691</t>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>19237691</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1672,9 +1695,9 @@
           <t>Malawi</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>19,129,952</t>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>19129952</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1692,9 +1715,9 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>19,116,201</t>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>19116201</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1712,9 +1735,9 @@
           <t>Kazakhstan</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>18,776,707</t>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>18776707</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1732,9 +1755,9 @@
           <t>Zambia</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>18,383,955</t>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>18383955</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1752,9 +1775,9 @@
           <t>Guatemala</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>17,915,568</t>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>17915568</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1772,9 +1795,9 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>17,643,054</t>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>17643054</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1792,9 +1815,9 @@
           <t>Syria</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>17,500,658</t>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>17500658</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1812,9 +1835,9 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>17,134,872</t>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>17134872</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1832,9 +1855,9 @@
           <t>Senegal</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>16,743,927</t>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>16743927</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1852,9 +1875,9 @@
           <t>Cambodia</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>16,718,965</t>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>16718965</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1872,9 +1895,9 @@
           <t>Chad</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>16,425,864</t>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>16425864</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1892,9 +1915,9 @@
           <t>Somalia</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>15,893,222</t>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>15893222</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1912,9 +1935,9 @@
           <t>Zimbabwe</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>14,862,924</t>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>14862924</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1932,9 +1955,9 @@
           <t>Guinea</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>13,132,795</t>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>13132795</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1952,9 +1975,9 @@
           <t>Rwanda</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>12,952,218</t>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>12952218</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -1972,9 +1995,9 @@
           <t>Benin</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>12,123,200</t>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>12123200</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -1992,9 +2015,9 @@
           <t>Burundi</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>11,890,784</t>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>11890784</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2012,9 +2035,9 @@
           <t>Tunisia</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>11,818,619</t>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>11818619</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2032,9 +2055,9 @@
           <t>Bolivia</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>11,673,021</t>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>11673021</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2052,9 +2075,9 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>11,589,623</t>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>11589623</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2072,9 +2095,9 @@
           <t>Haiti</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>11,402,528</t>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>11402528</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2092,9 +2115,9 @@
           <t>Cuba</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>11,326,616</t>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>11326616</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2112,9 +2135,9 @@
           <t>South Sudan</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>11,193,725</t>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>11193725</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2132,9 +2155,9 @@
           <t>Dominican Republic</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>10,847,910</t>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>10847910</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2152,9 +2175,9 @@
           <t>Czech Republic (Czechia)</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>10,708,981</t>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>10708981</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2172,9 +2195,9 @@
           <t>Greece</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>10,423,054</t>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>10423054</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2192,9 +2215,9 @@
           <t>Jordan</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>10,203,134</t>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>10203134</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2212,9 +2235,9 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>10,196,709</t>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>10196709</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2232,9 +2255,9 @@
           <t>Azerbaijan</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>10,139,177</t>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>10139177</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2252,9 +2275,9 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>10,099,265</t>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>10099265</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2272,9 +2295,9 @@
           <t>Honduras</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>9,904,607</t>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>9904607</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2292,9 +2315,9 @@
           <t>United Arab Emirates</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>9,890,402</t>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>9890402</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2312,9 +2335,9 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>9,660,351</t>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>9660351</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2332,9 +2355,9 @@
           <t>Tajikistan</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>9,537,645</t>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>9537645</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2352,9 +2375,9 @@
           <t>Belarus</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>9,449,323</t>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>9449323</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2372,9 +2395,9 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>9,006,398</t>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>9006398</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2392,9 +2415,9 @@
           <t>Papua New Guinea</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>8,947,024</t>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>8947024</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2412,9 +2435,9 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>8,737,371</t>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>8737371</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2432,9 +2455,9 @@
           <t>Israel</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>8,655,535</t>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>8655535</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2452,9 +2475,9 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>8,654,622</t>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>8654622</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2472,9 +2495,9 @@
           <t>Togo</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>8,278,724</t>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>8278724</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2492,9 +2515,9 @@
           <t>Sierra Leone</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>7,976,983</t>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>7976983</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2512,9 +2535,9 @@
           <t>Hong Kong</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>7,496,981</t>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>7496981</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2532,9 +2555,9 @@
           <t>Laos</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>7,275,560</t>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>7275560</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2552,9 +2575,9 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>7,132,538</t>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>7132538</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2572,9 +2595,9 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>6,948,445</t>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>6948445</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2592,9 +2615,9 @@
           <t>Libya</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>6,871,292</t>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>6871292</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2612,9 +2635,9 @@
           <t>Lebanon</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>6,825,445</t>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>6825445</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2632,9 +2655,9 @@
           <t>Nicaragua</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>6,624,554</t>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>6624554</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2652,9 +2675,9 @@
           <t>Kyrgyzstan</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>6,524,195</t>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>6524195</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2672,9 +2695,9 @@
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>6,486,205</t>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>6486205</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2692,9 +2715,9 @@
           <t>Turkmenistan</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>6,031,200</t>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>6031200</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2712,9 +2735,9 @@
           <t>Singapore</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>5,850,342</t>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>5850342</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2732,9 +2755,9 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>5,792,202</t>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>5792202</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2752,9 +2775,9 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>5,540,720</t>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>5540720</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2772,9 +2795,9 @@
           <t>Congo</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>5,518,087</t>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>5518087</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2792,9 +2815,9 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>5,459,642</t>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>5459642</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2812,9 +2835,9 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>5,421,241</t>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>5421241</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2832,9 +2855,9 @@
           <t>Oman</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>5,106,626</t>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>5106626</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2852,9 +2875,9 @@
           <t>State of Palestine</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>5,101,414</t>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>5101414</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2872,9 +2895,9 @@
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>5,094,118</t>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>5094118</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2892,9 +2915,9 @@
           <t>Liberia</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>5,057,681</t>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>5057681</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2912,9 +2935,9 @@
           <t>Ireland</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>4,937,786</t>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>4937786</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2932,9 +2955,9 @@
           <t>Central African Republic</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>4,829,767</t>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>4829767</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2952,9 +2975,9 @@
           <t>New Zealand</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>4,822,233</t>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>4822233</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -2972,9 +2995,9 @@
           <t>Mauritania</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>4,649,658</t>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>4649658</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2992,9 +3015,9 @@
           <t>Panama</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>4,314,767</t>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>4314767</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3012,9 +3035,9 @@
           <t>Kuwait</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>4,270,571</t>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>4270571</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3032,9 +3055,9 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>4,105,267</t>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>4105267</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3052,9 +3075,9 @@
           <t>Moldova</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>4,033,963</t>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>4033963</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3072,9 +3095,9 @@
           <t>Georgia</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>3,989,167</t>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>3989167</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3092,9 +3115,9 @@
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>3,546,421</t>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>3546421</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3112,9 +3135,9 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>3,473,730</t>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>3473730</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3132,9 +3155,9 @@
           <t>Bosnia and Herzegovina</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>3,280,819</t>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>3280819</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3152,9 +3175,9 @@
           <t>Mongolia</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>3,278,290</t>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>3278290</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3172,9 +3195,9 @@
           <t>Armenia</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>2,963,243</t>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>2963243</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3192,9 +3215,9 @@
           <t>Jamaica</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>2,961,167</t>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>2961167</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3212,9 +3235,9 @@
           <t>Qatar</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>2,881,053</t>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>2881053</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3232,9 +3255,9 @@
           <t>Albania</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>2,877,797</t>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>2877797</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3252,9 +3275,9 @@
           <t>Puerto Rico</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>2,860,853</t>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>2860853</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3272,9 +3295,9 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>2,722,289</t>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>2722289</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3292,9 +3315,9 @@
           <t>Namibia</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>2,540,905</t>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>2540905</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3312,9 +3335,9 @@
           <t>Gambia</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>2,416,668</t>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>2416668</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3332,9 +3355,9 @@
           <t>Botswana</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>2,351,627</t>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>2351627</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3352,9 +3375,9 @@
           <t>Gabon</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>2,225,734</t>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>2225734</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3372,9 +3395,9 @@
           <t>Lesotho</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>2,142,249</t>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>2142249</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3392,9 +3415,9 @@
           <t>North Macedonia</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>2,083,374</t>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>2083374</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3412,9 +3435,9 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>2,078,938</t>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>2078938</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3432,9 +3455,9 @@
           <t>Guinea-Bissau</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>1,968,001</t>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>1968001</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3452,9 +3475,9 @@
           <t>Latvia</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>1,886,198</t>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>1886198</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3472,9 +3495,9 @@
           <t>Bahrain</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>1,701,575</t>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>1701575</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3492,9 +3515,9 @@
           <t>Equatorial Guinea</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>1,402,985</t>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>1402985</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3512,9 +3535,9 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>1,399,488</t>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>1399488</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3532,9 +3555,9 @@
           <t>Estonia</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>1,326,535</t>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>1326535</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3552,9 +3575,9 @@
           <t>Timor-Leste</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>1,318,445</t>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>1318445</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3572,9 +3595,9 @@
           <t>Mauritius</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>1,271,768</t>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>1271768</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3592,9 +3615,9 @@
           <t>Cyprus</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>1,207,359</t>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>1207359</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3612,9 +3635,9 @@
           <t>Eswatini</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>1,160,164</t>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>1160164</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3632,9 +3655,9 @@
           <t>Djibouti</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>988,000</t>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>988000</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3652,9 +3675,9 @@
           <t>Fiji</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>896,445</t>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>896445</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3672,9 +3695,9 @@
           <t>Réunion</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>895,312</t>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>895312</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -3692,9 +3715,9 @@
           <t>Comoros</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>869,601</t>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>869601</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3712,9 +3735,9 @@
           <t>Guyana</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>786,552</t>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>786552</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3732,9 +3755,9 @@
           <t>Bhutan</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>771,608</t>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>771608</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3752,9 +3775,9 @@
           <t>Solomon Islands</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>686,884</t>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>686884</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3772,9 +3795,9 @@
           <t>Macao</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>649,335</t>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>649335</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3792,9 +3815,9 @@
           <t>Montenegro</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>628,066</t>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>628066</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3812,9 +3835,9 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>625,978</t>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>625978</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -3832,9 +3855,9 @@
           <t>Western Sahara</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>597,339</t>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>597339</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3852,9 +3875,9 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>586,632</t>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>586632</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3872,9 +3895,9 @@
           <t>Cabo Verde</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>555,987</t>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>555987</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -3892,9 +3915,9 @@
           <t>Micronesia</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>548,914</t>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>548914</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -3912,9 +3935,9 @@
           <t>Maldives</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>540,544</t>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>540544</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -3932,9 +3955,9 @@
           <t>Malta</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>441,543</t>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>441543</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -3952,9 +3975,9 @@
           <t xml:space="preserve">Brunei </t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>437,479</t>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>437479</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -3972,9 +3995,9 @@
           <t>Guadeloupe</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>400,124</t>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>400124</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -3992,9 +4015,9 @@
           <t>Belize</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>397,628</t>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>397628</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4012,9 +4035,9 @@
           <t>Bahamas</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>393,244</t>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>393244</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4032,9 +4055,9 @@
           <t>Martinique</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>375,265</t>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>375265</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4052,9 +4075,9 @@
           <t>Iceland</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>341,243</t>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>341243</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4072,9 +4095,9 @@
           <t>Vanuatu</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>307,145</t>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>307145</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4092,9 +4115,9 @@
           <t>French Guiana</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>298,682</t>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>298682</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4112,9 +4135,9 @@
           <t>Barbados</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>287,375</t>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>287375</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4132,9 +4155,9 @@
           <t>New Caledonia</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>285,498</t>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>285498</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4152,9 +4175,9 @@
           <t>French Polynesia</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>280,908</t>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>280908</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4172,9 +4195,9 @@
           <t>Mayotte</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>272,815</t>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>272815</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4192,9 +4215,9 @@
           <t>Sao Tome &amp; Principe</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>219,159</t>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>219159</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4212,9 +4235,9 @@
           <t>Samoa</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>198,414</t>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>198414</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4232,9 +4255,9 @@
           <t>Saint Lucia</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>183,627</t>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>183627</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4252,9 +4275,9 @@
           <t>Channel Islands</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>173,863</t>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>173863</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4272,9 +4295,9 @@
           <t>Guam</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>168,775</t>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>168775</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4292,9 +4315,9 @@
           <t>Curaçao</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>164,093</t>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>164093</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4312,9 +4335,9 @@
           <t>Kiribati</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>119,449</t>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>119449</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4332,9 +4355,9 @@
           <t>Grenada</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>112,523</t>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>112523</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4352,9 +4375,9 @@
           <t>St. Vincent &amp; Grenadines</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>110,940</t>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>110940</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4372,9 +4395,9 @@
           <t>Aruba</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>106,766</t>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>106766</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4392,9 +4415,9 @@
           <t>Tonga</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>105,695</t>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>105695</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4412,9 +4435,9 @@
           <t>U.S. Virgin Islands</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>104,425</t>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>104425</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4432,9 +4455,9 @@
           <t>Seychelles</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>98,347</t>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>98347</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4452,9 +4475,9 @@
           <t>Antigua and Barbuda</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>97,929</t>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>97929</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4472,9 +4495,9 @@
           <t>Isle of Man</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>85,033</t>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>85033</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4492,9 +4515,9 @@
           <t>Andorra</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>77,265</t>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>77265</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4512,9 +4535,9 @@
           <t>Dominica</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>71,986</t>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>71986</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4532,9 +4555,9 @@
           <t>Cayman Islands</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>65,722</t>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>65722</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4552,9 +4575,9 @@
           <t>Bermuda</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>62,278</t>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>62278</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4572,9 +4595,9 @@
           <t>Marshall Islands</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>59,190</t>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>59190</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -4592,9 +4615,9 @@
           <t>Northern Mariana Islands</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>57,559</t>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>57559</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4612,9 +4635,9 @@
           <t>Greenland</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>56,770</t>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>56770</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -4632,9 +4655,9 @@
           <t>American Samoa</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>55,191</t>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>55191</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -4652,9 +4675,9 @@
           <t>Saint Kitts &amp; Nevis</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>53,199</t>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>53199</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4672,9 +4695,9 @@
           <t>Faeroe Islands</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>48,863</t>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>48863</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -4692,9 +4715,9 @@
           <t>Sint Maarten</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>42,876</t>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>42876</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4712,9 +4735,9 @@
           <t>Monaco</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>39,242</t>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>39242</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4732,9 +4755,9 @@
           <t>Turks and Caicos</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>38,717</t>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>38717</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -4752,9 +4775,9 @@
           <t>Saint Martin</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>38,666</t>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>38666</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -4772,9 +4795,9 @@
           <t>Liechtenstein</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>38,128</t>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>38128</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -4792,9 +4815,9 @@
           <t>San Marino</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>33,931</t>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>33931</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -4812,9 +4835,9 @@
           <t>Gibraltar</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>33,691</t>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>33691</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -4832,9 +4855,9 @@
           <t>British Virgin Islands</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>30,231</t>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>30231</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -4852,9 +4875,9 @@
           <t>Caribbean Netherlands</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>26,223</t>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>26223</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4872,9 +4895,9 @@
           <t>Palau</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>18,094</t>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>18094</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -4892,9 +4915,9 @@
           <t>Cook Islands</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>17,564</t>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>17564</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -4912,9 +4935,9 @@
           <t>Anguilla</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>15,003</t>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>15003</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -4932,9 +4955,9 @@
           <t>Tuvalu</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>11,792</t>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>11792</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -4952,9 +4975,9 @@
           <t>Wallis &amp; Futuna</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>11,239</t>
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>11239</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -4972,9 +4995,9 @@
           <t>Nauru</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>10,824</t>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>10824</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -4992,9 +5015,9 @@
           <t>Saint Barthelemy</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>9,877</t>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>9877</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5012,9 +5035,9 @@
           <t>Saint Helena</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>6,077</t>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>6077</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5032,9 +5055,9 @@
           <t>Saint Pierre &amp; Miquelon</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>5,794</t>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>5794</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5052,9 +5075,9 @@
           <t>Montserrat</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>4,992</t>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>4992</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5072,9 +5095,9 @@
           <t>Falkland Islands</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>3,480</t>
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>3480</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5092,9 +5115,9 @@
           <t>Niue</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>1,626</t>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>1626</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5112,9 +5135,9 @@
           <t>Tokelau</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>1,357</t>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>1357</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5132,7 +5155,7 @@
           <t>Holy See</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -5145,5 +5168,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>